--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043836</v>
+        <v>112043826</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547780.8219412278</v>
+        <v>547406.6944084832</v>
       </c>
       <c r="R2" t="n">
-        <v>6960011.99547551</v>
+        <v>6960191.172019338</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043820</v>
+        <v>112043803</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>548038.8799609818</v>
+        <v>547601.3945487372</v>
       </c>
       <c r="R3" t="n">
-        <v>6960182.022906554</v>
+        <v>6959985.575400449</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043804</v>
+        <v>112043811</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,42 +916,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547645.194889792</v>
+        <v>547793.0168932382</v>
       </c>
       <c r="R4" t="n">
-        <v>6960223.473540307</v>
+        <v>6960088.20842413</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -994,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043814</v>
+        <v>112043834</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547485.3465635736</v>
+        <v>547645.1155541365</v>
       </c>
       <c r="R5" t="n">
-        <v>6960144.213458366</v>
+        <v>6960007.27881992</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043818</v>
+        <v>112043817</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1177,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547773.6353577875</v>
+        <v>547494.752405408</v>
       </c>
       <c r="R6" t="n">
-        <v>6960190.984639513</v>
+        <v>6960255.191263142</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043824</v>
+        <v>112043805</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,34 +1256,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547464.8345240084</v>
+        <v>547817.5921681048</v>
       </c>
       <c r="R7" t="n">
-        <v>6960198.880846845</v>
+        <v>6960196.203627611</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1335,6 +1330,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043835</v>
+        <v>112043838</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547723.8224254061</v>
+        <v>548088.9988889061</v>
       </c>
       <c r="R8" t="n">
-        <v>6960020.329076412</v>
+        <v>6960173.594637346</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043828</v>
+        <v>112043809</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,21 +1489,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547484.4293970062</v>
+        <v>547660.3742221398</v>
       </c>
       <c r="R9" t="n">
-        <v>6960144.200218302</v>
+        <v>6960220.487290687</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043810</v>
+        <v>112043830</v>
       </c>
       <c r="B10" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1601,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547839.5438845176</v>
+        <v>547484.6277164955</v>
       </c>
       <c r="R10" t="n">
-        <v>6960200.645057931</v>
+        <v>6960130.462077713</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043838</v>
+        <v>112043832</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>548088.9988889061</v>
+        <v>547489.0368533977</v>
       </c>
       <c r="R11" t="n">
-        <v>6960173.594637346</v>
+        <v>6960079.225476497</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043853</v>
+        <v>112043835</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,21 +1825,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>547528.8213555265</v>
+        <v>547723.8224254061</v>
       </c>
       <c r="R12" t="n">
-        <v>6960182.857834185</v>
+        <v>6960020.329076412</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043802</v>
+        <v>112043813</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>78579</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547630.0843365307</v>
+        <v>548086.8064089828</v>
       </c>
       <c r="R13" t="n">
-        <v>6960095.005994358</v>
+        <v>6960166.692109996</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043809</v>
+        <v>112043822</v>
       </c>
       <c r="B14" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2049,21 +2049,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547660.3742221398</v>
+        <v>547717.3092439516</v>
       </c>
       <c r="R14" t="n">
-        <v>6960220.487290687</v>
+        <v>6960058.252585243</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043837</v>
+        <v>112043823</v>
       </c>
       <c r="B15" t="n">
         <v>78578</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547783.0683855526</v>
+        <v>547552.935247313</v>
       </c>
       <c r="R15" t="n">
-        <v>6960015.234469853</v>
+        <v>6960101.218432157</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043805</v>
+        <v>112043814</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,42 +2269,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547817.5921681048</v>
+        <v>547485.3465635736</v>
       </c>
       <c r="R16" t="n">
-        <v>6960196.203627611</v>
+        <v>6960144.213458366</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2347,11 +2343,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2378,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043811</v>
+        <v>112043836</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2390,25 +2381,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2418,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547793.0168932382</v>
+        <v>547780.8219412278</v>
       </c>
       <c r="R17" t="n">
-        <v>6960088.20842413</v>
+        <v>6960011.99547551</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2490,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043832</v>
+        <v>112043810</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2506,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2530,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547489.0368533977</v>
+        <v>547839.5438845176</v>
       </c>
       <c r="R18" t="n">
-        <v>6960079.225476497</v>
+        <v>6960200.645057931</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2602,10 +2593,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043801</v>
+        <v>112043824</v>
       </c>
       <c r="B19" t="n">
-        <v>88489</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2618,21 +2609,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1962</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2642,10 +2633,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547772.9386388202</v>
+        <v>547464.8345240084</v>
       </c>
       <c r="R19" t="n">
-        <v>6960081.046133138</v>
+        <v>6960198.880846845</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2714,10 +2705,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043851</v>
+        <v>112043818</v>
       </c>
       <c r="B20" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2726,25 +2717,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2754,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>547815.3917405433</v>
+        <v>547773.6353577875</v>
       </c>
       <c r="R20" t="n">
-        <v>6960221.363017589</v>
+        <v>6960190.984639513</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2826,10 +2817,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043831</v>
+        <v>112043853</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2842,21 +2833,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2866,10 +2857,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547494.5357101597</v>
+        <v>547528.8213555265</v>
       </c>
       <c r="R21" t="n">
-        <v>6960111.367619209</v>
+        <v>6960182.857834185</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3050,10 +3041,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043850</v>
+        <v>112043831</v>
       </c>
       <c r="B23" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3062,25 +3053,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3090,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547675.8081599188</v>
+        <v>547494.5357101597</v>
       </c>
       <c r="R23" t="n">
-        <v>6960326.512517593</v>
+        <v>6960111.367619209</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3162,7 +3153,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112043833</v>
+        <v>112043828</v>
       </c>
       <c r="B24" t="n">
         <v>78578</v>
@@ -3202,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547586.6183045763</v>
+        <v>547484.4293970062</v>
       </c>
       <c r="R24" t="n">
-        <v>6959960.626553033</v>
+        <v>6960144.200218302</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3274,10 +3265,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043823</v>
+        <v>112043806</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3290,34 +3281,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547552.935247313</v>
+        <v>547716.1728382733</v>
       </c>
       <c r="R25" t="n">
-        <v>6960101.218432157</v>
+        <v>6960073.351567009</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3360,6 +3355,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3386,10 +3386,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043800</v>
+        <v>112043820</v>
       </c>
       <c r="B26" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3402,21 +3402,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>547427.4984140585</v>
+        <v>548038.8799609818</v>
       </c>
       <c r="R26" t="n">
-        <v>6960211.624987414</v>
+        <v>6960182.022906554</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043821</v>
+        <v>112043804</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3514,34 +3514,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>548029.2860368798</v>
+        <v>547645.194889792</v>
       </c>
       <c r="R27" t="n">
-        <v>6960147.988430422</v>
+        <v>6960223.473540307</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3584,6 +3588,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3610,7 +3619,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043817</v>
+        <v>112043833</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3650,10 +3659,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547494.752405408</v>
+        <v>547586.6183045763</v>
       </c>
       <c r="R28" t="n">
-        <v>6960255.191263142</v>
+        <v>6959960.626553033</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3722,10 +3731,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043806</v>
+        <v>112043800</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>86223</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3738,38 +3747,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547716.1728382733</v>
+        <v>547427.4984140585</v>
       </c>
       <c r="R29" t="n">
-        <v>6960073.351567009</v>
+        <v>6960211.624987414</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3812,11 +3817,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3843,10 +3843,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043803</v>
+        <v>112043851</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>89965</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3855,25 +3855,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>760</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547601.3945487372</v>
+        <v>547815.3917405433</v>
       </c>
       <c r="R30" t="n">
-        <v>6959985.575400449</v>
+        <v>6960221.363017589</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043822</v>
+        <v>112043837</v>
       </c>
       <c r="B31" t="n">
         <v>78578</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547717.3092439516</v>
+        <v>547783.0683855526</v>
       </c>
       <c r="R31" t="n">
-        <v>6960058.252585243</v>
+        <v>6960015.234469853</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043834</v>
+        <v>112043850</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4079,25 +4079,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547645.1155541365</v>
+        <v>547675.8081599188</v>
       </c>
       <c r="R32" t="n">
-        <v>6960007.27881992</v>
+        <v>6960326.512517593</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043830</v>
+        <v>112043821</v>
       </c>
       <c r="B33" t="n">
         <v>78578</v>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>547484.6277164955</v>
+        <v>548029.2860368798</v>
       </c>
       <c r="R33" t="n">
-        <v>6960130.462077713</v>
+        <v>6960147.988430422</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043826</v>
+        <v>112043842</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>90687</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4303,38 +4303,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>5964</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547406.6944084832</v>
+        <v>547637.8936341384</v>
       </c>
       <c r="R34" t="n">
-        <v>6960191.172019338</v>
+        <v>6960094.202999773</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4385,6 +4388,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4403,10 +4407,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043813</v>
+        <v>112043843</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>90687</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4415,38 +4419,41 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>5964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>548086.8064089828</v>
+        <v>547461.6641394142</v>
       </c>
       <c r="R35" t="n">
-        <v>6960166.692109996</v>
+        <v>6960196.086949596</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4497,6 +4504,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4512,6 +4520,586 @@
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112043845</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Norrkrången, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>547639.4096490684</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6960116.210808483</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Hällesjö</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112043840</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Norrkrången, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>547722.1084858887</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6960170.083415537</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Hällesjö</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112043847</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Norrkrången, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>547492.1525838093</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6960149.350070755</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Hällesjö</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112043841</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Norrkrången, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>547828.7004480069</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6960094.681608488</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Hällesjö</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112043848</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Norrkrången, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>547485.3597851094</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6960143.297584111</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Hällesjö</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043826</v>
+        <v>112043835</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547406.6944084832</v>
+        <v>547723.8224254061</v>
       </c>
       <c r="R2" t="n">
-        <v>6960191.172019338</v>
+        <v>6960020.329076412</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043803</v>
+        <v>112043805</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547601.3945487372</v>
+        <v>547817.5921681048</v>
       </c>
       <c r="R3" t="n">
-        <v>6959985.575400449</v>
+        <v>6960196.203627611</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,6 +882,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043811</v>
+        <v>112043800</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547793.0168932382</v>
+        <v>547427.4984140585</v>
       </c>
       <c r="R4" t="n">
-        <v>6960088.20842413</v>
+        <v>6960211.624987414</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043834</v>
+        <v>112043853</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547645.1155541365</v>
+        <v>547528.8213555265</v>
       </c>
       <c r="R5" t="n">
-        <v>6960007.27881992</v>
+        <v>6960182.857834185</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043817</v>
+        <v>112043850</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547494.752405408</v>
+        <v>547675.8081599188</v>
       </c>
       <c r="R6" t="n">
-        <v>6960255.191263142</v>
+        <v>6960326.512517593</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043805</v>
+        <v>112043832</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,38 +1265,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547817.5921681048</v>
+        <v>547489.0368533977</v>
       </c>
       <c r="R7" t="n">
-        <v>6960196.203627611</v>
+        <v>6960079.225476497</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1330,11 +1335,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1473,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043809</v>
+        <v>112043834</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,21 +1489,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547660.3742221398</v>
+        <v>547645.1155541365</v>
       </c>
       <c r="R9" t="n">
-        <v>6960220.487290687</v>
+        <v>6960007.27881992</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043830</v>
+        <v>112043803</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1601,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547484.6277164955</v>
+        <v>547601.3945487372</v>
       </c>
       <c r="R10" t="n">
-        <v>6960130.462077713</v>
+        <v>6959985.575400449</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043832</v>
+        <v>112043817</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547489.0368533977</v>
+        <v>547494.752405408</v>
       </c>
       <c r="R11" t="n">
-        <v>6960079.225476497</v>
+        <v>6960255.191263142</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043835</v>
+        <v>112043813</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,21 +1825,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>547723.8224254061</v>
+        <v>548086.8064089828</v>
       </c>
       <c r="R12" t="n">
-        <v>6960020.329076412</v>
+        <v>6960166.692109996</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043813</v>
+        <v>112043830</v>
       </c>
       <c r="B13" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>548086.8064089828</v>
+        <v>547484.6277164955</v>
       </c>
       <c r="R13" t="n">
-        <v>6960166.692109996</v>
+        <v>6960130.462077713</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043822</v>
+        <v>112043818</v>
       </c>
       <c r="B14" t="n">
         <v>78578</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547717.3092439516</v>
+        <v>547773.6353577875</v>
       </c>
       <c r="R14" t="n">
-        <v>6960058.252585243</v>
+        <v>6960190.984639513</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043823</v>
+        <v>112043806</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,34 +2161,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547552.935247313</v>
+        <v>547716.1728382733</v>
       </c>
       <c r="R15" t="n">
-        <v>6960101.218432157</v>
+        <v>6960073.351567009</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2231,6 +2235,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2369,7 +2378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043836</v>
+        <v>112043828</v>
       </c>
       <c r="B17" t="n">
         <v>78578</v>
@@ -2409,10 +2418,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547780.8219412278</v>
+        <v>547484.4293970062</v>
       </c>
       <c r="R17" t="n">
-        <v>6960011.99547551</v>
+        <v>6960144.200218302</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2490,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043810</v>
+        <v>112043804</v>
       </c>
       <c r="B18" t="n">
-        <v>89425</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2497,34 +2506,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547839.5438845176</v>
+        <v>547645.194889792</v>
       </c>
       <c r="R18" t="n">
-        <v>6960200.645057931</v>
+        <v>6960223.473540307</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2567,6 +2580,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2593,10 +2611,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043824</v>
+        <v>112043811</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,25 +2623,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2633,10 +2651,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547464.8345240084</v>
+        <v>547793.0168932382</v>
       </c>
       <c r="R19" t="n">
-        <v>6960198.880846845</v>
+        <v>6960088.20842413</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2705,10 +2723,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043818</v>
+        <v>112043810</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,21 +2739,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,10 +2763,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>547773.6353577875</v>
+        <v>547839.5438845176</v>
       </c>
       <c r="R20" t="n">
-        <v>6960190.984639513</v>
+        <v>6960200.645057931</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2817,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043853</v>
+        <v>112043823</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2833,21 +2851,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2857,10 +2875,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547528.8213555265</v>
+        <v>547552.935247313</v>
       </c>
       <c r="R21" t="n">
-        <v>6960182.857834185</v>
+        <v>6960101.218432157</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2929,7 +2947,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112043827</v>
+        <v>112043833</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -2969,10 +2987,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>547486.0918470979</v>
+        <v>547586.6183045763</v>
       </c>
       <c r="R22" t="n">
-        <v>6960156.133040844</v>
+        <v>6959960.626553033</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3041,7 +3059,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043831</v>
+        <v>112043836</v>
       </c>
       <c r="B23" t="n">
         <v>78578</v>
@@ -3081,10 +3099,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547494.5357101597</v>
+        <v>547780.8219412278</v>
       </c>
       <c r="R23" t="n">
-        <v>6960111.367619209</v>
+        <v>6960011.99547551</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3153,10 +3171,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112043828</v>
+        <v>112043851</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3165,25 +3183,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3211,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547484.4293970062</v>
+        <v>547815.3917405433</v>
       </c>
       <c r="R24" t="n">
-        <v>6960144.200218302</v>
+        <v>6960221.363017589</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,10 +3283,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043806</v>
+        <v>112043831</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3281,38 +3299,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547716.1728382733</v>
+        <v>547494.5357101597</v>
       </c>
       <c r="R25" t="n">
-        <v>6960073.351567009</v>
+        <v>6960111.367619209</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3355,11 +3369,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3386,7 +3395,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043820</v>
+        <v>112043837</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3426,10 +3435,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>548038.8799609818</v>
+        <v>547783.0683855526</v>
       </c>
       <c r="R26" t="n">
-        <v>6960182.022906554</v>
+        <v>6960015.234469853</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3498,10 +3507,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043804</v>
+        <v>112043827</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3514,38 +3523,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547645.194889792</v>
+        <v>547486.0918470979</v>
       </c>
       <c r="R27" t="n">
-        <v>6960223.473540307</v>
+        <v>6960156.133040844</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3588,11 +3593,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3619,7 +3619,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043833</v>
+        <v>112043826</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547586.6183045763</v>
+        <v>547406.6944084832</v>
       </c>
       <c r="R28" t="n">
-        <v>6959960.626553033</v>
+        <v>6960191.172019338</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3731,10 +3731,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043800</v>
+        <v>112043822</v>
       </c>
       <c r="B29" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3747,21 +3747,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3771,10 +3771,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547427.4984140585</v>
+        <v>547717.3092439516</v>
       </c>
       <c r="R29" t="n">
-        <v>6960211.624987414</v>
+        <v>6960058.252585243</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043851</v>
+        <v>112043820</v>
       </c>
       <c r="B30" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3855,25 +3855,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547815.3917405433</v>
+        <v>548038.8799609818</v>
       </c>
       <c r="R30" t="n">
-        <v>6960221.363017589</v>
+        <v>6960182.022906554</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043837</v>
+        <v>112043809</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3971,21 +3971,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547783.0683855526</v>
+        <v>547660.3742221398</v>
       </c>
       <c r="R31" t="n">
-        <v>6960015.234469853</v>
+        <v>6960220.487290687</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043850</v>
+        <v>112043824</v>
       </c>
       <c r="B32" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4079,25 +4079,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547675.8081599188</v>
+        <v>547464.8345240084</v>
       </c>
       <c r="R32" t="n">
-        <v>6960326.512517593</v>
+        <v>6960198.880846845</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043842</v>
+        <v>112043847</v>
       </c>
       <c r="B34" t="n">
         <v>90687</v>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547637.8936341384</v>
+        <v>547492.1525838093</v>
       </c>
       <c r="R34" t="n">
-        <v>6960094.202999773</v>
+        <v>6960149.350070755</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043845</v>
+        <v>112043842</v>
       </c>
       <c r="B36" t="n">
         <v>90687</v>
@@ -4566,10 +4566,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547639.4096490684</v>
+        <v>547637.8936341384</v>
       </c>
       <c r="R36" t="n">
-        <v>6960116.210808483</v>
+        <v>6960094.202999773</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043847</v>
+        <v>112043845</v>
       </c>
       <c r="B38" t="n">
         <v>90687</v>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547492.1525838093</v>
+        <v>547639.4096490684</v>
       </c>
       <c r="R38" t="n">
-        <v>6960149.350070755</v>
+        <v>6960116.210808483</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043835</v>
+        <v>112043824</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547723.8224254061</v>
+        <v>547464.8345240084</v>
       </c>
       <c r="R2" t="n">
-        <v>6960020.329076412</v>
+        <v>6960198.880846845</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043805</v>
+        <v>112043831</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547817.5921681048</v>
+        <v>547494.5357101597</v>
       </c>
       <c r="R3" t="n">
-        <v>6960196.203627611</v>
+        <v>6960111.367619209</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043800</v>
+        <v>112043818</v>
       </c>
       <c r="B4" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547427.4984140585</v>
+        <v>547773.6353577875</v>
       </c>
       <c r="R4" t="n">
-        <v>6960211.624987414</v>
+        <v>6960190.984639513</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043853</v>
+        <v>112043830</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547528.8213555265</v>
+        <v>547484.6277164955</v>
       </c>
       <c r="R5" t="n">
-        <v>6960182.857834185</v>
+        <v>6960130.462077713</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043850</v>
+        <v>112043828</v>
       </c>
       <c r="B6" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547675.8081599188</v>
+        <v>547484.4293970062</v>
       </c>
       <c r="R6" t="n">
-        <v>6960326.512517593</v>
+        <v>6960144.200218302</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1361,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043838</v>
+        <v>112043810</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1401,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548088.9988889061</v>
+        <v>547839.5438845176</v>
       </c>
       <c r="R8" t="n">
-        <v>6960173.594637346</v>
+        <v>6960200.645057931</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1473,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043834</v>
+        <v>112043837</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1513,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547645.1155541365</v>
+        <v>547783.0683855526</v>
       </c>
       <c r="R9" t="n">
-        <v>6960007.27881992</v>
+        <v>6960015.234469853</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043803</v>
+        <v>112043853</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547601.3945487372</v>
+        <v>547528.8213555265</v>
       </c>
       <c r="R10" t="n">
-        <v>6959985.575400449</v>
+        <v>6960182.857834185</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043817</v>
+        <v>112043803</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1737,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547494.752405408</v>
+        <v>547601.3945487372</v>
       </c>
       <c r="R11" t="n">
-        <v>6960255.191263142</v>
+        <v>6959985.575400449</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043813</v>
+        <v>112043820</v>
       </c>
       <c r="B12" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>548086.8064089828</v>
+        <v>548038.8799609818</v>
       </c>
       <c r="R12" t="n">
-        <v>6960166.692109996</v>
+        <v>6960182.022906554</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1921,7 +1912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043830</v>
+        <v>112043836</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1961,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547484.6277164955</v>
+        <v>547780.8219412278</v>
       </c>
       <c r="R13" t="n">
-        <v>6960130.462077713</v>
+        <v>6960011.99547551</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2033,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043818</v>
+        <v>112043826</v>
       </c>
       <c r="B14" t="n">
         <v>78578</v>
@@ -2073,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547773.6353577875</v>
+        <v>547406.6944084832</v>
       </c>
       <c r="R14" t="n">
-        <v>6960190.984639513</v>
+        <v>6960191.172019338</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043806</v>
+        <v>112043833</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,38 +2152,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547716.1728382733</v>
+        <v>547586.6183045763</v>
       </c>
       <c r="R15" t="n">
-        <v>6960073.351567009</v>
+        <v>6959960.626553033</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2235,11 +2222,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2266,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043814</v>
+        <v>112043835</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2306,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547485.3465635736</v>
+        <v>547723.8224254061</v>
       </c>
       <c r="R16" t="n">
-        <v>6960144.213458366</v>
+        <v>6960020.329076412</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043828</v>
+        <v>112043827</v>
       </c>
       <c r="B17" t="n">
         <v>78578</v>
@@ -2418,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547484.4293970062</v>
+        <v>547486.0918470979</v>
       </c>
       <c r="R17" t="n">
-        <v>6960144.200218302</v>
+        <v>6960156.133040844</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2490,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043804</v>
+        <v>112043834</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2506,38 +2488,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547645.194889792</v>
+        <v>547645.1155541365</v>
       </c>
       <c r="R18" t="n">
-        <v>6960223.473540307</v>
+        <v>6960007.27881992</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2580,11 +2558,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2611,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043811</v>
+        <v>112043804</v>
       </c>
       <c r="B19" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2623,38 +2596,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547793.0168932382</v>
+        <v>547645.194889792</v>
       </c>
       <c r="R19" t="n">
-        <v>6960088.20842413</v>
+        <v>6960223.473540307</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2697,6 +2674,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2723,10 +2705,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043810</v>
+        <v>112043813</v>
       </c>
       <c r="B20" t="n">
-        <v>89425</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2739,21 +2721,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5442</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2763,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>547839.5438845176</v>
+        <v>548086.8064089828</v>
       </c>
       <c r="R20" t="n">
-        <v>6960200.645057931</v>
+        <v>6960166.692109996</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2835,10 +2817,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043823</v>
+        <v>112043811</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2847,25 +2829,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2875,10 +2857,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547552.935247313</v>
+        <v>547793.0168932382</v>
       </c>
       <c r="R21" t="n">
-        <v>6960101.218432157</v>
+        <v>6960088.20842413</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2947,7 +2929,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112043833</v>
+        <v>112043821</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -2987,10 +2969,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>547586.6183045763</v>
+        <v>548029.2860368798</v>
       </c>
       <c r="R22" t="n">
-        <v>6959960.626553033</v>
+        <v>6960147.988430422</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3059,7 +3041,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043836</v>
+        <v>112043822</v>
       </c>
       <c r="B23" t="n">
         <v>78578</v>
@@ -3099,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547780.8219412278</v>
+        <v>547717.3092439516</v>
       </c>
       <c r="R23" t="n">
-        <v>6960011.99547551</v>
+        <v>6960058.252585243</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3171,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112043851</v>
+        <v>112043806</v>
       </c>
       <c r="B24" t="n">
-        <v>89965</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3183,38 +3165,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547815.3917405433</v>
+        <v>547716.1728382733</v>
       </c>
       <c r="R24" t="n">
-        <v>6960221.363017589</v>
+        <v>6960073.351567009</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3257,6 +3243,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3283,7 +3274,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043831</v>
+        <v>112043823</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3323,10 +3314,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547494.5357101597</v>
+        <v>547552.935247313</v>
       </c>
       <c r="R25" t="n">
-        <v>6960111.367619209</v>
+        <v>6960101.218432157</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3395,7 +3386,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043837</v>
+        <v>112043817</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3435,10 +3426,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>547783.0683855526</v>
+        <v>547494.752405408</v>
       </c>
       <c r="R26" t="n">
-        <v>6960015.234469853</v>
+        <v>6960255.191263142</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3507,10 +3498,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043827</v>
+        <v>112043851</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3519,25 +3510,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3547,10 +3538,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547486.0918470979</v>
+        <v>547815.3917405433</v>
       </c>
       <c r="R27" t="n">
-        <v>6960156.133040844</v>
+        <v>6960221.363017589</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3619,7 +3610,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043826</v>
+        <v>112043838</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3659,10 +3650,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547406.6944084832</v>
+        <v>548088.9988889061</v>
       </c>
       <c r="R28" t="n">
-        <v>6960191.172019338</v>
+        <v>6960173.594637346</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3731,10 +3722,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043822</v>
+        <v>112043805</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3747,34 +3738,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547717.3092439516</v>
+        <v>547817.5921681048</v>
       </c>
       <c r="R29" t="n">
-        <v>6960058.252585243</v>
+        <v>6960196.203627611</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3817,6 +3812,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3843,10 +3843,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043820</v>
+        <v>112043814</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>90678</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3855,25 +3855,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>548038.8799609818</v>
+        <v>547485.3465635736</v>
       </c>
       <c r="R30" t="n">
-        <v>6960182.022906554</v>
+        <v>6960144.213458366</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043809</v>
+        <v>112043800</v>
       </c>
       <c r="B31" t="n">
-        <v>89425</v>
+        <v>86223</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3971,21 +3971,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>4412</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547660.3742221398</v>
+        <v>547427.4984140585</v>
       </c>
       <c r="R31" t="n">
-        <v>6960220.487290687</v>
+        <v>6960211.624987414</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043824</v>
+        <v>112043809</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4083,21 +4083,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547464.8345240084</v>
+        <v>547660.3742221398</v>
       </c>
       <c r="R32" t="n">
-        <v>6960198.880846845</v>
+        <v>6960220.487290687</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043821</v>
+        <v>112043850</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4191,25 +4191,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>548029.2860368798</v>
+        <v>547675.8081599188</v>
       </c>
       <c r="R33" t="n">
-        <v>6960147.988430422</v>
+        <v>6960326.512517593</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043847</v>
+        <v>112043845</v>
       </c>
       <c r="B34" t="n">
         <v>90687</v>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547492.1525838093</v>
+        <v>547639.4096490684</v>
       </c>
       <c r="R34" t="n">
-        <v>6960149.350070755</v>
+        <v>6960116.210808483</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043843</v>
+        <v>112043840</v>
       </c>
       <c r="B35" t="n">
         <v>90687</v>
@@ -4450,10 +4450,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547461.6641394142</v>
+        <v>547722.1084858887</v>
       </c>
       <c r="R35" t="n">
-        <v>6960196.086949596</v>
+        <v>6960170.083415537</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043842</v>
+        <v>112043841</v>
       </c>
       <c r="B36" t="n">
         <v>90687</v>
@@ -4566,10 +4566,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547637.8936341384</v>
+        <v>547828.7004480069</v>
       </c>
       <c r="R36" t="n">
-        <v>6960094.202999773</v>
+        <v>6960094.681608488</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112043840</v>
+        <v>112043847</v>
       </c>
       <c r="B37" t="n">
         <v>90687</v>
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>547722.1084858887</v>
+        <v>547492.1525838093</v>
       </c>
       <c r="R37" t="n">
-        <v>6960170.083415537</v>
+        <v>6960149.350070755</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043845</v>
+        <v>112043842</v>
       </c>
       <c r="B38" t="n">
         <v>90687</v>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547639.4096490684</v>
+        <v>547637.8936341384</v>
       </c>
       <c r="R38" t="n">
-        <v>6960116.210808483</v>
+        <v>6960094.202999773</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112043841</v>
+        <v>112043848</v>
       </c>
       <c r="B39" t="n">
         <v>90687</v>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>547828.7004480069</v>
+        <v>547485.3597851094</v>
       </c>
       <c r="R39" t="n">
-        <v>6960094.681608488</v>
+        <v>6960143.297584111</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112043848</v>
+        <v>112043843</v>
       </c>
       <c r="B40" t="n">
         <v>90687</v>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>547485.3597851094</v>
+        <v>547461.6641394142</v>
       </c>
       <c r="R40" t="n">
-        <v>6960143.297584111</v>
+        <v>6960196.086949596</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043824</v>
+        <v>112043804</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547464.8345240084</v>
+        <v>547645</v>
       </c>
       <c r="R2" t="n">
-        <v>6960198.880846845</v>
+        <v>6960223</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +757,14 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043831</v>
+        <v>112043814</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547494.5357101597</v>
+        <v>547485</v>
       </c>
       <c r="R3" t="n">
-        <v>6960111.367619209</v>
+        <v>6960144</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,19 +864,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043818</v>
+        <v>112043824</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -944,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547773.6353577875</v>
+        <v>547465</v>
       </c>
       <c r="R4" t="n">
-        <v>6960190.984639513</v>
+        <v>6960199</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,19 +966,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,7 +995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043830</v>
+        <v>112043834</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1056,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547484.6277164955</v>
+        <v>547645</v>
       </c>
       <c r="R5" t="n">
-        <v>6960130.462077713</v>
+        <v>6960007</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,19 +1068,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1097,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043828</v>
+        <v>112043803</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1113,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1137,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547484.4293970062</v>
+        <v>547601</v>
       </c>
       <c r="R6" t="n">
-        <v>6960144.200218302</v>
+        <v>6959986</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1201,19 +1170,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,7 +1199,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043832</v>
+        <v>112043821</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1280,10 +1239,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547489.0368533977</v>
+        <v>548029</v>
       </c>
       <c r="R7" t="n">
-        <v>6960079.225476497</v>
+        <v>6960148</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1313,19 +1272,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043810</v>
+        <v>112043830</v>
       </c>
       <c r="B8" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1317,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1341,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547839.5438845176</v>
+        <v>547485</v>
       </c>
       <c r="R8" t="n">
-        <v>6960200.645057931</v>
+        <v>6960130</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1425,19 +1374,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1403,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043837</v>
+        <v>112043838</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1504,10 +1443,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547783.0683855526</v>
+        <v>548089</v>
       </c>
       <c r="R9" t="n">
-        <v>6960015.234469853</v>
+        <v>6960174</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1537,19 +1476,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1505,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043853</v>
+        <v>112043827</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1521,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1545,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547528.8213555265</v>
+        <v>547486</v>
       </c>
       <c r="R10" t="n">
-        <v>6960182.857834185</v>
+        <v>6960156</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1649,19 +1578,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1607,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043803</v>
+        <v>112043822</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1623,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1647,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547601.3945487372</v>
+        <v>547717</v>
       </c>
       <c r="R11" t="n">
-        <v>6959985.575400449</v>
+        <v>6960058</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1761,19 +1680,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1709,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043820</v>
+        <v>112043850</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1721,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1749,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>548038.8799609818</v>
+        <v>547676</v>
       </c>
       <c r="R12" t="n">
-        <v>6960182.022906554</v>
+        <v>6960327</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1873,19 +1782,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1912,7 +1811,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043836</v>
+        <v>112043826</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1952,10 +1851,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547780.8219412278</v>
+        <v>547407</v>
       </c>
       <c r="R13" t="n">
-        <v>6960011.99547551</v>
+        <v>6960191</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1985,19 +1884,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2024,7 +1913,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043826</v>
+        <v>112043831</v>
       </c>
       <c r="B14" t="n">
         <v>78578</v>
@@ -2064,10 +1953,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547406.6944084832</v>
+        <v>547495</v>
       </c>
       <c r="R14" t="n">
-        <v>6960191.172019338</v>
+        <v>6960111</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2097,19 +1986,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2136,10 +2015,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043833</v>
+        <v>112043805</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,34 +2031,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547586.6183045763</v>
+        <v>547818</v>
       </c>
       <c r="R15" t="n">
-        <v>6959960.626553033</v>
+        <v>6960196</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2209,19 +2092,14 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2248,10 +2126,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043835</v>
+        <v>112043809</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2142,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2166,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547723.8224254061</v>
+        <v>547660</v>
       </c>
       <c r="R16" t="n">
-        <v>6960020.329076412</v>
+        <v>6960220</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2321,19 +2199,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2360,10 +2228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043827</v>
+        <v>112043813</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2244,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2268,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547486.0918470979</v>
+        <v>548087</v>
       </c>
       <c r="R17" t="n">
-        <v>6960156.133040844</v>
+        <v>6960167</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2433,19 +2301,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2472,7 +2330,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043834</v>
+        <v>112043820</v>
       </c>
       <c r="B18" t="n">
         <v>78578</v>
@@ -2512,10 +2370,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547645.1155541365</v>
+        <v>548039</v>
       </c>
       <c r="R18" t="n">
-        <v>6960007.27881992</v>
+        <v>6960182</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2545,19 +2403,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2584,10 +2432,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043804</v>
+        <v>112043833</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,38 +2448,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547645.194889792</v>
+        <v>547587</v>
       </c>
       <c r="R19" t="n">
-        <v>6960223.473540307</v>
+        <v>6959961</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2661,24 +2505,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2705,10 +2534,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043813</v>
+        <v>112043835</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,21 +2550,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,10 +2574,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>548086.8064089828</v>
+        <v>547724</v>
       </c>
       <c r="R20" t="n">
-        <v>6960166.692109996</v>
+        <v>6960020</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2778,19 +2607,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2817,10 +2636,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043811</v>
+        <v>112043817</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,25 +2648,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2857,10 +2676,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547793.0168932382</v>
+        <v>547495</v>
       </c>
       <c r="R21" t="n">
-        <v>6960088.20842413</v>
+        <v>6960255</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2890,19 +2709,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2929,10 +2738,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112043821</v>
+        <v>112043810</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89425</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2945,21 +2754,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2969,10 +2778,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>548029.2860368798</v>
+        <v>547840</v>
       </c>
       <c r="R22" t="n">
-        <v>6960147.988430422</v>
+        <v>6960201</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3002,19 +2811,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3041,7 +2840,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043822</v>
+        <v>112043837</v>
       </c>
       <c r="B23" t="n">
         <v>78578</v>
@@ -3081,10 +2880,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547717.3092439516</v>
+        <v>547783</v>
       </c>
       <c r="R23" t="n">
-        <v>6960058.252585243</v>
+        <v>6960015</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3114,19 +2913,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3197,10 +2986,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547716.1728382733</v>
+        <v>547716</v>
       </c>
       <c r="R24" t="n">
-        <v>6960073.351567009</v>
+        <v>6960073</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3230,19 +3019,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3274,7 +3053,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043823</v>
+        <v>112043836</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3314,10 +3093,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547552.935247313</v>
+        <v>547781</v>
       </c>
       <c r="R25" t="n">
-        <v>6960101.218432157</v>
+        <v>6960012</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3347,19 +3126,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3386,7 +3155,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043817</v>
+        <v>112043828</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3426,10 +3195,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>547494.752405408</v>
+        <v>547484</v>
       </c>
       <c r="R26" t="n">
-        <v>6960255.191263142</v>
+        <v>6960144</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3459,19 +3228,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3538,10 +3297,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547815.3917405433</v>
+        <v>547815</v>
       </c>
       <c r="R27" t="n">
-        <v>6960221.363017589</v>
+        <v>6960221</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3571,19 +3330,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3610,10 +3359,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043838</v>
+        <v>112043811</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3622,25 +3371,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3650,10 +3399,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>548088.9988889061</v>
+        <v>547793</v>
       </c>
       <c r="R28" t="n">
-        <v>6960173.594637346</v>
+        <v>6960088</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3683,19 +3432,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3722,10 +3461,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043805</v>
+        <v>112043853</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3738,38 +3477,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547817.5921681048</v>
+        <v>547529</v>
       </c>
       <c r="R29" t="n">
-        <v>6960196.203627611</v>
+        <v>6960183</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3799,24 +3534,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3843,10 +3563,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043814</v>
+        <v>112043823</v>
       </c>
       <c r="B30" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3855,25 +3575,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3883,10 +3603,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547485.3465635736</v>
+        <v>547553</v>
       </c>
       <c r="R30" t="n">
-        <v>6960144.213458366</v>
+        <v>6960101</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3916,19 +3636,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3955,10 +3665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043800</v>
+        <v>112043832</v>
       </c>
       <c r="B31" t="n">
-        <v>86223</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3971,21 +3681,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3995,10 +3705,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547427.4984140585</v>
+        <v>547489</v>
       </c>
       <c r="R31" t="n">
-        <v>6960211.624987414</v>
+        <v>6960079</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4028,19 +3738,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4067,10 +3767,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043809</v>
+        <v>112043818</v>
       </c>
       <c r="B32" t="n">
-        <v>89425</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4083,21 +3783,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4107,10 +3807,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547660.3742221398</v>
+        <v>547774</v>
       </c>
       <c r="R32" t="n">
-        <v>6960220.487290687</v>
+        <v>6960191</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4140,19 +3840,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4179,10 +3869,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043850</v>
+        <v>112043800</v>
       </c>
       <c r="B33" t="n">
-        <v>89965</v>
+        <v>86223</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4191,25 +3881,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>760</v>
+        <v>4412</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4219,10 +3909,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>547675.8081599188</v>
+        <v>547427</v>
       </c>
       <c r="R33" t="n">
-        <v>6960326.512517593</v>
+        <v>6960212</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4252,19 +3942,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4291,7 +3971,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043845</v>
+        <v>112043843</v>
       </c>
       <c r="B34" t="n">
         <v>90687</v>
@@ -4334,10 +4014,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547639.4096490684</v>
+        <v>547462</v>
       </c>
       <c r="R34" t="n">
-        <v>6960116.210808483</v>
+        <v>6960196</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4367,19 +4047,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4407,7 +4077,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043840</v>
+        <v>112043842</v>
       </c>
       <c r="B35" t="n">
         <v>90687</v>
@@ -4450,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547722.1084858887</v>
+        <v>547638</v>
       </c>
       <c r="R35" t="n">
-        <v>6960170.083415537</v>
+        <v>6960094</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4483,19 +4153,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4523,7 +4183,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043841</v>
+        <v>112043847</v>
       </c>
       <c r="B36" t="n">
         <v>90687</v>
@@ -4566,10 +4226,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547828.7004480069</v>
+        <v>547492</v>
       </c>
       <c r="R36" t="n">
-        <v>6960094.681608488</v>
+        <v>6960149</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4599,19 +4259,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4639,7 +4289,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112043847</v>
+        <v>112043841</v>
       </c>
       <c r="B37" t="n">
         <v>90687</v>
@@ -4682,10 +4332,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>547492.1525838093</v>
+        <v>547829</v>
       </c>
       <c r="R37" t="n">
-        <v>6960149.350070755</v>
+        <v>6960095</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4715,19 +4365,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4755,7 +4395,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043842</v>
+        <v>112043840</v>
       </c>
       <c r="B38" t="n">
         <v>90687</v>
@@ -4798,10 +4438,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547637.8936341384</v>
+        <v>547722</v>
       </c>
       <c r="R38" t="n">
-        <v>6960094.202999773</v>
+        <v>6960170</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4831,19 +4471,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4871,7 +4501,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112043848</v>
+        <v>112043845</v>
       </c>
       <c r="B39" t="n">
         <v>90687</v>
@@ -4914,10 +4544,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>547485.3597851094</v>
+        <v>547639</v>
       </c>
       <c r="R39" t="n">
-        <v>6960143.297584111</v>
+        <v>6960116</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4947,19 +4577,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4987,7 +4607,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112043843</v>
+        <v>112043848</v>
       </c>
       <c r="B40" t="n">
         <v>90687</v>
@@ -5030,10 +4650,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>547461.6641394142</v>
+        <v>547485</v>
       </c>
       <c r="R40" t="n">
-        <v>6960196.086949596</v>
+        <v>6960143</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5063,19 +4683,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043804</v>
+        <v>112043853</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547645</v>
+        <v>547529</v>
       </c>
       <c r="R2" t="n">
-        <v>6960223</v>
+        <v>6960183</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043814</v>
+        <v>112043804</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,38 +794,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547485</v>
+        <v>547645</v>
       </c>
       <c r="R3" t="n">
-        <v>6960144</v>
+        <v>6960223</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,6 +862,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043824</v>
+        <v>112043838</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547465</v>
+        <v>548089</v>
       </c>
       <c r="R4" t="n">
-        <v>6960199</v>
+        <v>6960174</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043834</v>
+        <v>112043850</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>90099</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1007,25 +1007,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547645</v>
+        <v>547676</v>
       </c>
       <c r="R5" t="n">
-        <v>6960007</v>
+        <v>6960327</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043803</v>
+        <v>112043835</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1113,21 +1113,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547601</v>
+        <v>547724</v>
       </c>
       <c r="R6" t="n">
-        <v>6959986</v>
+        <v>6960020</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043821</v>
+        <v>112043837</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548029</v>
+        <v>547783</v>
       </c>
       <c r="R7" t="n">
-        <v>6960148</v>
+        <v>6960015</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043830</v>
+        <v>112043834</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547485</v>
+        <v>547645</v>
       </c>
       <c r="R8" t="n">
-        <v>6960130</v>
+        <v>6960007</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043838</v>
+        <v>112043817</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>548089</v>
+        <v>547495</v>
       </c>
       <c r="R9" t="n">
-        <v>6960174</v>
+        <v>6960255</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043827</v>
+        <v>112043851</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>90099</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1517,25 +1517,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547486</v>
+        <v>547815</v>
       </c>
       <c r="R10" t="n">
-        <v>6960156</v>
+        <v>6960221</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043822</v>
+        <v>112043805</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,34 +1623,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547717</v>
+        <v>547818</v>
       </c>
       <c r="R11" t="n">
-        <v>6960058</v>
+        <v>6960196</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1683,6 +1687,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1709,10 +1718,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043850</v>
+        <v>112043809</v>
       </c>
       <c r="B12" t="n">
-        <v>89965</v>
+        <v>89559</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1721,25 +1730,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>760</v>
+        <v>5442</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1749,10 +1758,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>547676</v>
+        <v>547660</v>
       </c>
       <c r="R12" t="n">
-        <v>6960327</v>
+        <v>6960220</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043826</v>
+        <v>112043828</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1851,10 +1860,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547407</v>
+        <v>547484</v>
       </c>
       <c r="R13" t="n">
-        <v>6960191</v>
+        <v>6960144</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1913,10 +1922,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043831</v>
+        <v>112043800</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>86357</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1929,21 +1938,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>4412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1953,10 +1962,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547495</v>
+        <v>547427</v>
       </c>
       <c r="R14" t="n">
-        <v>6960111</v>
+        <v>6960212</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2015,10 +2024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043805</v>
+        <v>112043830</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2031,38 +2040,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547818</v>
+        <v>547485</v>
       </c>
       <c r="R15" t="n">
-        <v>6960196</v>
+        <v>6960130</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2095,11 +2100,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2126,10 +2126,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043809</v>
+        <v>112043814</v>
       </c>
       <c r="B16" t="n">
-        <v>89425</v>
+        <v>90812</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2138,25 +2138,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547660</v>
+        <v>547485</v>
       </c>
       <c r="R16" t="n">
-        <v>6960220</v>
+        <v>6960144</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043813</v>
+        <v>112043818</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>78699</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2244,21 +2244,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>548087</v>
+        <v>547774</v>
       </c>
       <c r="R17" t="n">
-        <v>6960167</v>
+        <v>6960191</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2330,10 +2330,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043820</v>
+        <v>112043810</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89559</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2346,21 +2346,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>548039</v>
+        <v>547840</v>
       </c>
       <c r="R18" t="n">
-        <v>6960182</v>
+        <v>6960201</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043833</v>
+        <v>112043824</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547587</v>
+        <v>547465</v>
       </c>
       <c r="R19" t="n">
-        <v>6959961</v>
+        <v>6960199</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043835</v>
+        <v>112043820</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>547724</v>
+        <v>548039</v>
       </c>
       <c r="R20" t="n">
-        <v>6960020</v>
+        <v>6960182</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043817</v>
+        <v>112043803</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2652,21 +2652,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547495</v>
+        <v>547601</v>
       </c>
       <c r="R21" t="n">
-        <v>6960255</v>
+        <v>6959986</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112043810</v>
+        <v>112043821</v>
       </c>
       <c r="B22" t="n">
-        <v>89425</v>
+        <v>78699</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2754,21 +2754,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2778,10 +2778,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>547840</v>
+        <v>548029</v>
       </c>
       <c r="R22" t="n">
-        <v>6960201</v>
+        <v>6960148</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043837</v>
+        <v>112043831</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547783</v>
+        <v>547495</v>
       </c>
       <c r="R23" t="n">
-        <v>6960015</v>
+        <v>6960111</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2945,7 +2945,7 @@
         <v>112043806</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043836</v>
+        <v>112043833</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3093,10 +3093,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547781</v>
+        <v>547587</v>
       </c>
       <c r="R25" t="n">
-        <v>6960012</v>
+        <v>6959961</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3155,10 +3155,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043828</v>
+        <v>112043813</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>78700</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3171,21 +3171,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>547484</v>
+        <v>548087</v>
       </c>
       <c r="R26" t="n">
-        <v>6960144</v>
+        <v>6960167</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043851</v>
+        <v>112043836</v>
       </c>
       <c r="B27" t="n">
-        <v>89965</v>
+        <v>78699</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3269,25 +3269,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3297,10 +3297,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547815</v>
+        <v>547781</v>
       </c>
       <c r="R27" t="n">
-        <v>6960221</v>
+        <v>6960012</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3359,10 +3359,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043811</v>
+        <v>112043827</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>78699</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3371,25 +3371,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547793</v>
+        <v>547486</v>
       </c>
       <c r="R28" t="n">
-        <v>6960088</v>
+        <v>6960156</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043853</v>
+        <v>112043832</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>78699</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3477,21 +3477,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547529</v>
+        <v>547489</v>
       </c>
       <c r="R29" t="n">
-        <v>6960183</v>
+        <v>6960079</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043823</v>
+        <v>112043826</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547553</v>
+        <v>547407</v>
       </c>
       <c r="R30" t="n">
-        <v>6960101</v>
+        <v>6960191</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043832</v>
+        <v>112043823</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3705,10 +3705,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547489</v>
+        <v>547553</v>
       </c>
       <c r="R31" t="n">
-        <v>6960079</v>
+        <v>6960101</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043818</v>
+        <v>112043822</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547774</v>
+        <v>547717</v>
       </c>
       <c r="R32" t="n">
-        <v>6960191</v>
+        <v>6960058</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3869,10 +3869,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043800</v>
+        <v>112043811</v>
       </c>
       <c r="B33" t="n">
-        <v>86223</v>
+        <v>90466</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3881,25 +3881,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3909,10 +3909,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>547427</v>
+        <v>547793</v>
       </c>
       <c r="R33" t="n">
-        <v>6960212</v>
+        <v>6960088</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3974,7 +3974,7 @@
         <v>112043843</v>
       </c>
       <c r="B34" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043842</v>
+        <v>112043840</v>
       </c>
       <c r="B35" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547638</v>
+        <v>547722</v>
       </c>
       <c r="R35" t="n">
-        <v>6960094</v>
+        <v>6960170</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4186,7 +4186,7 @@
         <v>112043847</v>
       </c>
       <c r="B36" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112043841</v>
+        <v>112043842</v>
       </c>
       <c r="B37" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>547829</v>
+        <v>547638</v>
       </c>
       <c r="R37" t="n">
-        <v>6960095</v>
+        <v>6960094</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043840</v>
+        <v>112043848</v>
       </c>
       <c r="B38" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547722</v>
+        <v>547485</v>
       </c>
       <c r="R38" t="n">
-        <v>6960170</v>
+        <v>6960143</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112043845</v>
+        <v>112043841</v>
       </c>
       <c r="B39" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>547639</v>
+        <v>547829</v>
       </c>
       <c r="R39" t="n">
-        <v>6960116</v>
+        <v>6960095</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112043848</v>
+        <v>112043845</v>
       </c>
       <c r="B40" t="n">
-        <v>90687</v>
+        <v>90821</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>547485</v>
+        <v>547639</v>
       </c>
       <c r="R40" t="n">
-        <v>6960143</v>
+        <v>6960116</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043853</v>
+        <v>112043827</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547529</v>
+        <v>547486</v>
       </c>
       <c r="R2" t="n">
-        <v>6960183</v>
+        <v>6960156</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043804</v>
+        <v>112043800</v>
       </c>
       <c r="B3" t="n">
-        <v>56430</v>
+        <v>86371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,38 +798,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>4412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547645</v>
+        <v>547427</v>
       </c>
       <c r="R3" t="n">
-        <v>6960223</v>
+        <v>6960212</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,11 +858,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043838</v>
+        <v>112043850</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>90113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -905,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -933,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548089</v>
+        <v>547676</v>
       </c>
       <c r="R4" t="n">
-        <v>6960174</v>
+        <v>6960327</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -995,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043850</v>
+        <v>112043813</v>
       </c>
       <c r="B5" t="n">
-        <v>90099</v>
+        <v>78714</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1007,25 +998,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>760</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1035,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>547676</v>
+        <v>548087</v>
       </c>
       <c r="R5" t="n">
-        <v>6960327</v>
+        <v>6960167</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043835</v>
+        <v>112043851</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>90113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1109,25 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1137,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547724</v>
+        <v>547815</v>
       </c>
       <c r="R6" t="n">
-        <v>6960020</v>
+        <v>6960221</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1199,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043837</v>
+        <v>112043836</v>
       </c>
       <c r="B7" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1239,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547783</v>
+        <v>547781</v>
       </c>
       <c r="R7" t="n">
-        <v>6960015</v>
+        <v>6960012</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043834</v>
+        <v>112043853</v>
       </c>
       <c r="B8" t="n">
-        <v>78699</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1317,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1341,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547645</v>
+        <v>547529</v>
       </c>
       <c r="R8" t="n">
-        <v>6960007</v>
+        <v>6960183</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1403,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043817</v>
+        <v>112043818</v>
       </c>
       <c r="B9" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1443,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547495</v>
+        <v>547774</v>
       </c>
       <c r="R9" t="n">
-        <v>6960255</v>
+        <v>6960191</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043851</v>
+        <v>112043811</v>
       </c>
       <c r="B10" t="n">
-        <v>90099</v>
+        <v>90480</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1517,25 +1508,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>760</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1545,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547815</v>
+        <v>547793</v>
       </c>
       <c r="R10" t="n">
-        <v>6960221</v>
+        <v>6960088</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1607,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043805</v>
+        <v>112043834</v>
       </c>
       <c r="B11" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,38 +1614,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547818</v>
+        <v>547645</v>
       </c>
       <c r="R11" t="n">
-        <v>6960196</v>
+        <v>6960007</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1687,11 +1674,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1718,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043809</v>
+        <v>112043838</v>
       </c>
       <c r="B12" t="n">
-        <v>89559</v>
+        <v>78713</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1734,21 +1716,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1758,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>547660</v>
+        <v>548089</v>
       </c>
       <c r="R12" t="n">
-        <v>6960220</v>
+        <v>6960174</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1820,10 +1802,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043828</v>
+        <v>112043831</v>
       </c>
       <c r="B13" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1860,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547484</v>
+        <v>547495</v>
       </c>
       <c r="R13" t="n">
-        <v>6960144</v>
+        <v>6960111</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1922,10 +1904,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043800</v>
+        <v>112043822</v>
       </c>
       <c r="B14" t="n">
-        <v>86357</v>
+        <v>78713</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1938,21 +1920,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1962,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547427</v>
+        <v>547717</v>
       </c>
       <c r="R14" t="n">
-        <v>6960212</v>
+        <v>6960058</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2024,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043830</v>
+        <v>112043832</v>
       </c>
       <c r="B15" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2064,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547485</v>
+        <v>547489</v>
       </c>
       <c r="R15" t="n">
-        <v>6960130</v>
+        <v>6960079</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2126,10 +2108,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043814</v>
+        <v>112043809</v>
       </c>
       <c r="B16" t="n">
-        <v>90812</v>
+        <v>89573</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2138,25 +2120,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2166,10 +2148,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547485</v>
+        <v>547660</v>
       </c>
       <c r="R16" t="n">
-        <v>6960144</v>
+        <v>6960220</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2228,10 +2210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043818</v>
+        <v>112043833</v>
       </c>
       <c r="B17" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2268,10 +2250,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547774</v>
+        <v>547587</v>
       </c>
       <c r="R17" t="n">
-        <v>6960191</v>
+        <v>6959961</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2330,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043810</v>
+        <v>112043826</v>
       </c>
       <c r="B18" t="n">
-        <v>89559</v>
+        <v>78713</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2346,21 +2328,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2370,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547840</v>
+        <v>547407</v>
       </c>
       <c r="R18" t="n">
-        <v>6960201</v>
+        <v>6960191</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2432,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043824</v>
+        <v>112043817</v>
       </c>
       <c r="B19" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2472,10 +2454,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547465</v>
+        <v>547495</v>
       </c>
       <c r="R19" t="n">
-        <v>6960199</v>
+        <v>6960255</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2534,10 +2516,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043820</v>
+        <v>112043814</v>
       </c>
       <c r="B20" t="n">
-        <v>78699</v>
+        <v>90826</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2546,25 +2528,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2574,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>548039</v>
+        <v>547485</v>
       </c>
       <c r="R20" t="n">
-        <v>6960182</v>
+        <v>6960144</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2636,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112043803</v>
+        <v>112043820</v>
       </c>
       <c r="B21" t="n">
-        <v>89539</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2652,21 +2634,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2676,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>547601</v>
+        <v>548039</v>
       </c>
       <c r="R21" t="n">
-        <v>6959986</v>
+        <v>6960182</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2741,7 +2723,7 @@
         <v>112043821</v>
       </c>
       <c r="B22" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2840,10 +2822,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043831</v>
+        <v>112043804</v>
       </c>
       <c r="B23" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2856,34 +2838,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547495</v>
+        <v>547645</v>
       </c>
       <c r="R23" t="n">
-        <v>6960111</v>
+        <v>6960223</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2916,6 +2902,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2942,10 +2933,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112043806</v>
+        <v>112043824</v>
       </c>
       <c r="B24" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2958,38 +2949,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547716</v>
+        <v>547465</v>
       </c>
       <c r="R24" t="n">
-        <v>6960073</v>
+        <v>6960199</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3022,11 +3009,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3053,10 +3035,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043833</v>
+        <v>112043803</v>
       </c>
       <c r="B25" t="n">
-        <v>78699</v>
+        <v>89553</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3069,21 +3051,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3093,10 +3075,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547587</v>
+        <v>547601</v>
       </c>
       <c r="R25" t="n">
-        <v>6959961</v>
+        <v>6959986</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3155,10 +3137,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043813</v>
+        <v>112043835</v>
       </c>
       <c r="B26" t="n">
-        <v>78700</v>
+        <v>78713</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3171,21 +3153,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3195,10 +3177,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>548087</v>
+        <v>547724</v>
       </c>
       <c r="R26" t="n">
-        <v>6960167</v>
+        <v>6960020</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3257,10 +3239,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043836</v>
+        <v>112043828</v>
       </c>
       <c r="B27" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3297,10 +3279,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547781</v>
+        <v>547484</v>
       </c>
       <c r="R27" t="n">
-        <v>6960012</v>
+        <v>6960144</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3359,10 +3341,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043827</v>
+        <v>112043823</v>
       </c>
       <c r="B28" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3399,10 +3381,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547486</v>
+        <v>547553</v>
       </c>
       <c r="R28" t="n">
-        <v>6960156</v>
+        <v>6960101</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3461,10 +3443,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043832</v>
+        <v>112043837</v>
       </c>
       <c r="B29" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3501,10 +3483,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547489</v>
+        <v>547783</v>
       </c>
       <c r="R29" t="n">
-        <v>6960079</v>
+        <v>6960015</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3563,10 +3545,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043826</v>
+        <v>112043830</v>
       </c>
       <c r="B30" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3603,10 +3585,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547407</v>
+        <v>547485</v>
       </c>
       <c r="R30" t="n">
-        <v>6960191</v>
+        <v>6960130</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3665,10 +3647,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043823</v>
+        <v>112043810</v>
       </c>
       <c r="B31" t="n">
-        <v>78699</v>
+        <v>89573</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3681,21 +3663,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3705,10 +3687,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547553</v>
+        <v>547840</v>
       </c>
       <c r="R31" t="n">
-        <v>6960101</v>
+        <v>6960201</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3767,10 +3749,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043822</v>
+        <v>112043806</v>
       </c>
       <c r="B32" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3783,34 +3765,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547717</v>
+        <v>547716</v>
       </c>
       <c r="R32" t="n">
-        <v>6960058</v>
+        <v>6960073</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3843,6 +3829,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3869,10 +3860,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043811</v>
+        <v>112043805</v>
       </c>
       <c r="B33" t="n">
-        <v>90466</v>
+        <v>56430</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3881,38 +3872,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>547793</v>
+        <v>547818</v>
       </c>
       <c r="R33" t="n">
-        <v>6960088</v>
+        <v>6960196</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3945,6 +3940,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3971,10 +3971,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043843</v>
+        <v>112043848</v>
       </c>
       <c r="B34" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547462</v>
+        <v>547485</v>
       </c>
       <c r="R34" t="n">
-        <v>6960196</v>
+        <v>6960143</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043840</v>
+        <v>112043845</v>
       </c>
       <c r="B35" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547722</v>
+        <v>547639</v>
       </c>
       <c r="R35" t="n">
-        <v>6960170</v>
+        <v>6960116</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4183,10 +4183,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043847</v>
+        <v>112043840</v>
       </c>
       <c r="B36" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547492</v>
+        <v>547722</v>
       </c>
       <c r="R36" t="n">
-        <v>6960149</v>
+        <v>6960170</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112043842</v>
+        <v>112043841</v>
       </c>
       <c r="B37" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>547638</v>
+        <v>547829</v>
       </c>
       <c r="R37" t="n">
-        <v>6960094</v>
+        <v>6960095</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4395,10 +4395,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043848</v>
+        <v>112043842</v>
       </c>
       <c r="B38" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547485</v>
+        <v>547638</v>
       </c>
       <c r="R38" t="n">
-        <v>6960143</v>
+        <v>6960094</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112043841</v>
+        <v>112043843</v>
       </c>
       <c r="B39" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>547829</v>
+        <v>547462</v>
       </c>
       <c r="R39" t="n">
-        <v>6960095</v>
+        <v>6960196</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112043845</v>
+        <v>112043847</v>
       </c>
       <c r="B40" t="n">
-        <v>90821</v>
+        <v>90835</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>547639</v>
+        <v>547492</v>
       </c>
       <c r="R40" t="n">
-        <v>6960116</v>
+        <v>6960149</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112043827</v>
+        <v>112043804</v>
       </c>
       <c r="B2" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>547486</v>
+        <v>547645</v>
       </c>
       <c r="R2" t="n">
-        <v>6960156</v>
+        <v>6960223</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112043800</v>
+        <v>112043824</v>
       </c>
       <c r="B3" t="n">
-        <v>86371</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4412</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>547427</v>
+        <v>547465</v>
       </c>
       <c r="R3" t="n">
-        <v>6960212</v>
+        <v>6960199</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112043850</v>
+        <v>112043830</v>
       </c>
       <c r="B4" t="n">
-        <v>90113</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,25 +905,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>547676</v>
+        <v>547485</v>
       </c>
       <c r="R4" t="n">
-        <v>6960327</v>
+        <v>6960130</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112043813</v>
+        <v>112043806</v>
       </c>
       <c r="B5" t="n">
-        <v>78714</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,34 +1011,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548087</v>
+        <v>547716</v>
       </c>
       <c r="R5" t="n">
-        <v>6960167</v>
+        <v>6960073</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1062,6 +1075,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112043851</v>
+        <v>112043805</v>
       </c>
       <c r="B6" t="n">
-        <v>90113</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1100,38 +1118,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>547815</v>
+        <v>547818</v>
       </c>
       <c r="R6" t="n">
-        <v>6960221</v>
+        <v>6960196</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1164,6 +1186,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1190,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112043836</v>
+        <v>112043809</v>
       </c>
       <c r="B7" t="n">
-        <v>78713</v>
+        <v>89573</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1206,21 +1233,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1257,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>547781</v>
+        <v>547660</v>
       </c>
       <c r="R7" t="n">
-        <v>6960012</v>
+        <v>6960220</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,10 +1319,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112043853</v>
+        <v>112043800</v>
       </c>
       <c r="B8" t="n">
-        <v>77650</v>
+        <v>86371</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1335,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1359,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>547529</v>
+        <v>547427</v>
       </c>
       <c r="R8" t="n">
-        <v>6960183</v>
+        <v>6960212</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1394,7 +1421,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112043818</v>
+        <v>112043833</v>
       </c>
       <c r="B9" t="n">
         <v>78713</v>
@@ -1434,10 +1461,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>547774</v>
+        <v>547587</v>
       </c>
       <c r="R9" t="n">
-        <v>6960191</v>
+        <v>6959961</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1496,10 +1523,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112043811</v>
+        <v>112043838</v>
       </c>
       <c r="B10" t="n">
-        <v>90480</v>
+        <v>78713</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1508,25 +1535,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1536,10 +1563,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>547793</v>
+        <v>548089</v>
       </c>
       <c r="R10" t="n">
-        <v>6960088</v>
+        <v>6960174</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1598,10 +1625,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112043834</v>
+        <v>112043850</v>
       </c>
       <c r="B11" t="n">
-        <v>78713</v>
+        <v>90113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1610,25 +1637,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1638,10 +1665,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>547645</v>
+        <v>547676</v>
       </c>
       <c r="R11" t="n">
-        <v>6960007</v>
+        <v>6960327</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1700,7 +1727,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112043838</v>
+        <v>112043831</v>
       </c>
       <c r="B12" t="n">
         <v>78713</v>
@@ -1740,10 +1767,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>548089</v>
+        <v>547495</v>
       </c>
       <c r="R12" t="n">
-        <v>6960174</v>
+        <v>6960111</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1802,7 +1829,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112043831</v>
+        <v>112043823</v>
       </c>
       <c r="B13" t="n">
         <v>78713</v>
@@ -1842,10 +1869,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>547495</v>
+        <v>547553</v>
       </c>
       <c r="R13" t="n">
-        <v>6960111</v>
+        <v>6960101</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1904,7 +1931,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112043822</v>
+        <v>112043832</v>
       </c>
       <c r="B14" t="n">
         <v>78713</v>
@@ -1944,10 +1971,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>547717</v>
+        <v>547489</v>
       </c>
       <c r="R14" t="n">
-        <v>6960058</v>
+        <v>6960079</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2006,10 +2033,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112043832</v>
+        <v>112043813</v>
       </c>
       <c r="B15" t="n">
-        <v>78713</v>
+        <v>78714</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2022,21 +2049,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2046,10 +2073,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>547489</v>
+        <v>548087</v>
       </c>
       <c r="R15" t="n">
-        <v>6960079</v>
+        <v>6960167</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2108,10 +2135,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112043809</v>
+        <v>112043837</v>
       </c>
       <c r="B16" t="n">
-        <v>89573</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2124,21 +2151,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2148,10 +2175,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>547660</v>
+        <v>547783</v>
       </c>
       <c r="R16" t="n">
-        <v>6960220</v>
+        <v>6960015</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2210,7 +2237,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112043833</v>
+        <v>112043835</v>
       </c>
       <c r="B17" t="n">
         <v>78713</v>
@@ -2250,10 +2277,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>547587</v>
+        <v>547724</v>
       </c>
       <c r="R17" t="n">
-        <v>6959961</v>
+        <v>6960020</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2312,7 +2339,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112043826</v>
+        <v>112043822</v>
       </c>
       <c r="B18" t="n">
         <v>78713</v>
@@ -2352,10 +2379,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>547407</v>
+        <v>547717</v>
       </c>
       <c r="R18" t="n">
-        <v>6960191</v>
+        <v>6960058</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2414,7 +2441,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112043817</v>
+        <v>112043818</v>
       </c>
       <c r="B19" t="n">
         <v>78713</v>
@@ -2454,10 +2481,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>547495</v>
+        <v>547774</v>
       </c>
       <c r="R19" t="n">
-        <v>6960255</v>
+        <v>6960191</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2516,10 +2543,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112043814</v>
+        <v>112043853</v>
       </c>
       <c r="B20" t="n">
-        <v>90826</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2528,25 +2555,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2556,10 +2583,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>547485</v>
+        <v>547529</v>
       </c>
       <c r="R20" t="n">
-        <v>6960144</v>
+        <v>6960183</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2720,10 +2747,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112043821</v>
+        <v>112043811</v>
       </c>
       <c r="B22" t="n">
-        <v>78713</v>
+        <v>90480</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2732,25 +2759,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2760,10 +2787,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>548029</v>
+        <v>547793</v>
       </c>
       <c r="R22" t="n">
-        <v>6960148</v>
+        <v>6960088</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2822,10 +2849,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112043804</v>
+        <v>112043814</v>
       </c>
       <c r="B23" t="n">
-        <v>56430</v>
+        <v>90826</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2834,42 +2861,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>547645</v>
+        <v>547485</v>
       </c>
       <c r="R23" t="n">
-        <v>6960223</v>
+        <v>6960144</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2902,11 +2925,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2933,7 +2951,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112043824</v>
+        <v>112043821</v>
       </c>
       <c r="B24" t="n">
         <v>78713</v>
@@ -2973,10 +2991,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>547465</v>
+        <v>548029</v>
       </c>
       <c r="R24" t="n">
-        <v>6960199</v>
+        <v>6960148</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3035,10 +3053,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112043803</v>
+        <v>112043827</v>
       </c>
       <c r="B25" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3051,21 +3069,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3075,10 +3093,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>547601</v>
+        <v>547486</v>
       </c>
       <c r="R25" t="n">
-        <v>6959986</v>
+        <v>6960156</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3137,7 +3155,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112043835</v>
+        <v>112043817</v>
       </c>
       <c r="B26" t="n">
         <v>78713</v>
@@ -3177,10 +3195,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>547724</v>
+        <v>547495</v>
       </c>
       <c r="R26" t="n">
-        <v>6960020</v>
+        <v>6960255</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3239,10 +3257,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112043828</v>
+        <v>112043803</v>
       </c>
       <c r="B27" t="n">
-        <v>78713</v>
+        <v>89553</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3255,21 +3273,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3279,10 +3297,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>547484</v>
+        <v>547601</v>
       </c>
       <c r="R27" t="n">
-        <v>6960144</v>
+        <v>6959986</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3341,7 +3359,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112043823</v>
+        <v>112043834</v>
       </c>
       <c r="B28" t="n">
         <v>78713</v>
@@ -3381,10 +3399,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>547553</v>
+        <v>547645</v>
       </c>
       <c r="R28" t="n">
-        <v>6960101</v>
+        <v>6960007</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3443,7 +3461,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112043837</v>
+        <v>112043826</v>
       </c>
       <c r="B29" t="n">
         <v>78713</v>
@@ -3483,10 +3501,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>547783</v>
+        <v>547407</v>
       </c>
       <c r="R29" t="n">
-        <v>6960015</v>
+        <v>6960191</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3545,10 +3563,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112043830</v>
+        <v>112043810</v>
       </c>
       <c r="B30" t="n">
-        <v>78713</v>
+        <v>89573</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3561,21 +3579,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3585,10 +3603,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>547485</v>
+        <v>547840</v>
       </c>
       <c r="R30" t="n">
-        <v>6960130</v>
+        <v>6960201</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3647,10 +3665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112043810</v>
+        <v>112043851</v>
       </c>
       <c r="B31" t="n">
-        <v>89573</v>
+        <v>90113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3659,25 +3677,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5442</v>
+        <v>760</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3687,10 +3705,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>547840</v>
+        <v>547815</v>
       </c>
       <c r="R31" t="n">
-        <v>6960201</v>
+        <v>6960221</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3749,10 +3767,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112043806</v>
+        <v>112043836</v>
       </c>
       <c r="B32" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3765,38 +3783,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>547716</v>
+        <v>547781</v>
       </c>
       <c r="R32" t="n">
-        <v>6960073</v>
+        <v>6960012</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3829,11 +3843,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3860,10 +3869,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112043805</v>
+        <v>112043828</v>
       </c>
       <c r="B33" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3876,38 +3885,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Norrkrången, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>547818</v>
+        <v>547484</v>
       </c>
       <c r="R33" t="n">
-        <v>6960196</v>
+        <v>6960144</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3940,11 +3945,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3971,7 +3971,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112043848</v>
+        <v>112043840</v>
       </c>
       <c r="B34" t="n">
         <v>90835</v>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>547485</v>
+        <v>547722</v>
       </c>
       <c r="R34" t="n">
-        <v>6960143</v>
+        <v>6960170</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043845</v>
+        <v>112043843</v>
       </c>
       <c r="B35" t="n">
         <v>90835</v>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547639</v>
+        <v>547462</v>
       </c>
       <c r="R35" t="n">
-        <v>6960116</v>
+        <v>6960196</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043840</v>
+        <v>112043848</v>
       </c>
       <c r="B36" t="n">
         <v>90835</v>
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547722</v>
+        <v>547485</v>
       </c>
       <c r="R36" t="n">
-        <v>6960170</v>
+        <v>6960143</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112043841</v>
+        <v>112043847</v>
       </c>
       <c r="B37" t="n">
         <v>90835</v>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>547829</v>
+        <v>547492</v>
       </c>
       <c r="R37" t="n">
-        <v>6960095</v>
+        <v>6960149</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112043842</v>
+        <v>112043841</v>
       </c>
       <c r="B38" t="n">
         <v>90835</v>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>547638</v>
+        <v>547829</v>
       </c>
       <c r="R38" t="n">
-        <v>6960094</v>
+        <v>6960095</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112043843</v>
+        <v>112043845</v>
       </c>
       <c r="B39" t="n">
         <v>90835</v>
@@ -4544,10 +4544,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>547462</v>
+        <v>547639</v>
       </c>
       <c r="R39" t="n">
-        <v>6960196</v>
+        <v>6960116</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112043847</v>
+        <v>112043842</v>
       </c>
       <c r="B40" t="n">
         <v>90835</v>
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>547492</v>
+        <v>547638</v>
       </c>
       <c r="R40" t="n">
-        <v>6960149</v>
+        <v>6960094</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 46328-2022.xlsx
+++ b/artfynd/A 46328-2022.xlsx
@@ -4077,7 +4077,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112043843</v>
+        <v>112043848</v>
       </c>
       <c r="B35" t="n">
         <v>90835</v>
@@ -4120,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>547462</v>
+        <v>547485</v>
       </c>
       <c r="R35" t="n">
-        <v>6960196</v>
+        <v>6960143</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112043848</v>
+        <v>112043843</v>
       </c>
       <c r="B36" t="n">
         <v>90835</v>
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>547485</v>
+        <v>547462</v>
       </c>
       <c r="R36" t="n">
-        <v>6960143</v>
+        <v>6960196</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
